--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/45_Kars_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/45_Kars_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887673AF-E073-4705-8E49-E5938A2B80A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA326352-C83F-46FF-B2E7-864FF3D54319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{6A7F56CF-ECA1-4984-A7EC-3B9B94E1B188}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{6B053350-7068-465A-8E0B-CA8BBF464DED}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -946,13 +946,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7A2C933C-D3EE-4BC0-8FB3-A3C1023683FC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C3281803-D62F-4009-BF53-797E86B07EA5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{ED680588-E571-497B-9AAB-9FFBFEBFD105}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{619C4338-67BD-45C4-B042-685E9607623E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5DD5AA32-3B11-4306-B258-6B655DAE3654}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E96A67F0-E39B-4581-B806-B3E5E6C55596}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9530CB4A-DE5D-4110-82EA-9673C9DEF917}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{40C2BE3A-4B47-4A10-A245-69DE5422B0A4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7DDAD39D-3B46-4B81-B4A7-B9C951EB628B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A3C923DA-49A0-43B9-9B44-8FFA30B759F6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0692C1CB-5848-4F1D-8819-EF0937FDA222}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{725A6B6E-BE99-4C91-A14A-AD329AA939CE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{A564E2FB-D8A2-4108-8F08-F4574E0DB633}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AC5B8E0E-EF84-4003-9455-5005933BC1DB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA60051-1278-4F0A-B12E-2032F9FBF2A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C305214-C3C2-486E-B3A9-D7A875608B0B}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2560,18 +2560,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E470A9B-7789-4482-85F9-2D3D495AF76F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39134E3B-5917-4425-B480-9FA6A9AA1B0C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC4C8A29-4FDB-47FA-A9CE-D8F20001FF72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0A984D9-92C6-46F6-9D9C-CF77B8DC8415}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4A2DE1A1-7A90-498B-9D9E-9EBF3BBB6E7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{328747F8-C4EA-4657-B4CA-101D28525A10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC5E4E93-1D01-4DB6-96EE-A04C86C9F588}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B1D8884-0305-4A7A-ADCC-92F3D063CDCB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9E39477-CE79-44B4-BC35-0E13D2E87A0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28E5A3AB-CA7C-4185-A390-5B65D91F99EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89D1B924-3702-4BD9-A564-9D51679FDF3C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FD89ADD-2793-4A65-A41E-EF99814F0053}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C66392B-4BAA-4FA3-9617-19A6C1BFCE48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70796BB9-238E-4EDB-B302-603A1E20B074}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ECE5C72-9254-4A9D-AA8D-47DED2EE690F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE567E49-4896-43A0-B805-2C62176BB1D6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5ECA4104-7D75-49F5-9022-E81B9E819AFE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39C3B6E2-E090-4F67-B247-5A88DCD4BF24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{520CAB72-D788-4A1D-A6ED-4972ED09B370}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23960EC3-7FCE-4630-9B1E-A3378F94A2A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7764FA06-33EE-47FA-A485-D01519FFB08A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDA89C84-4C74-40A5-ACB0-1D4D66C7C5FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA3C6D1E-BB2F-427E-965C-F74F5049E4A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{916D7D50-CBB4-4957-8948-125AD86521D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B4B1A0-0A25-4C62-BF5E-B091F148E56F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D36EDF7-12CD-49C1-88BD-76110E020980}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3807,18 +3807,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A2C5FEC-563D-477F-B3F3-04399A8E095F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD1309F0-517A-4504-8045-BF72A68902F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0C8B531-D641-48E3-80E8-15C21707075C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1346C619-E4E7-40D5-86C4-2DF158B5C132}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{711A56BB-81B9-485B-9C37-EE8F115FAA6F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E6AFBE9-3F7F-4980-AC8D-85DE29759C91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8DCC97B-6613-49C8-B8EF-AAD85B78CAAC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0EEDC4EA-0857-4B0D-8DBC-44D3D3F08965}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5C385A4-08FA-42E2-9F53-CF9B3FB6C1CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE63623F-F573-4267-8DB6-1FF673F54DEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F5A8CEF-43A1-4BBF-8BC8-7A77C3BA7FC7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BED382EC-7118-4A83-8671-C6685205D97D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DAB2533-3AEB-40DE-8D38-E38AC1BE8A3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A96B1E26-FB5A-4675-BB08-ED8788083147}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{12E12AA8-0401-4F81-9C42-4594556A22F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6CF8A57A-507A-4A8C-BBB8-78BD5DD35BF3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CED0B848-1EF0-49B9-9A06-0A47ECF59741}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8DB79502-B89F-4052-8625-BD4ABE40FF16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8E4B544-5951-4F30-AD55-4ED3D4A6510C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C0E4D90-43A4-49CD-8CFB-A95D80BE436E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12A621F4-14CE-4467-A33D-FB802A203317}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E566CFC-FE3A-4FEF-816D-5DA5302D4EFF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE957CDD-AEBC-447F-AD25-3A872EB681AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8410023-E7A1-4681-990B-C7ED0DAEDA41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3831,7 +3831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED82976-7C82-4CD0-A173-0CF821ACCEA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F128A3-B34C-4F70-8239-DEB10284C706}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5050,18 +5050,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09FF489C-D253-4ED6-9EB2-15836D946271}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70A76F60-E478-409C-AF95-44C8C2A38924}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3D3EDA8-78D5-43AB-B738-4AC6A316BB9A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D269CA6-9C4B-4902-B95D-2E3247D950AA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{73372026-CB56-4E1A-8CE2-D6835EE713F1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84EDFF11-C075-4F66-8883-35950A746822}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{598041FE-08C7-4968-9A1A-73886C659433}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{536DAAC7-E969-4DDD-8230-99389498F97B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A63679DA-F295-4CCE-AD98-F15061008872}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FDC4440-8A11-46E4-85F7-C751B2649CFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55A26EAE-B5BD-4704-BF89-BCDD49A38BF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC712D43-C377-4922-987E-CBF1CF65357F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C158B75B-E72F-445E-945F-5D04B4C1F338}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{901ED8FC-C182-465A-8584-E90AED1674AD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E4815E2-AEC1-4B08-BF21-2B7619DBC6D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B2A5F25F-3204-41E7-AB86-8E091A5E97AA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F0B23971-EA29-4EC2-9FA4-ECF25EF1A373}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C61C2F0D-89C9-4F7B-95CA-407BD140C5C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66DE386D-00E3-4D64-B686-658C43660105}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCD9FEFC-48F3-4B33-89CC-D36D8FA976C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52CD88F6-D0FE-4FE1-8FB6-FC81668AED5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51980D93-2D06-44A3-AD52-92DC5E989BA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7E01FF3-D0B9-40AB-ABB5-8BF29685919C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11D9F7C5-E257-46D1-8C68-5BE2EF806151}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5074,7 +5074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB14551-5FA7-41EF-8FD4-FC87230CE123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F3FC9F-73DB-45A1-9FDB-A7C637EE960C}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6274,18 +6274,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6F78D54-CFD4-423D-8AB1-E5A5300E6B9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18D62626-D5F7-457D-9538-7884EABE850C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{13B8E51C-D7CA-48A7-98F8-BCB38A2686B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{668A33EB-CA7E-49AF-85DC-AEC0F2EC4D71}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3C5A794A-FC07-465F-9844-A84CA854E6BA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CEE46D6-1066-4629-BA62-DFB7F874AA06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE0855C4-FF02-4FAD-BA1F-B30391F07C02}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9510876C-9658-421A-B759-EE047C477996}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F093A681-0D77-44E1-ABCF-7824FABC8546}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8562A1B1-A571-4845-A818-799CC5506C9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7290B8E5-A100-43DA-91EB-D76E0BFA97C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F986F27-5C69-4BE9-89CB-CA587C84E038}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5DAEAE8-5D7B-4BF7-ACE3-EEC3CDAE6540}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4886BB90-F470-4326-B47E-C7483B3E3F5C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9FAD0326-A8E2-4BD9-9905-427A034D2CE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A78F5661-B749-4B6E-9B04-28CDA0B9673E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CB9D2EBC-C5D1-42B6-B737-37B6DFBED1BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93BEE864-F854-4995-9023-A3F0150D4A52}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1F0FA17-081B-47E8-AEFC-3154096A5D67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51CC8AE4-3E6D-4EF7-8779-06A32B99DB40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C43E0CD-1F15-4390-AD9D-4DD0BD42CD1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D0D1F83-DA5A-4708-AF6D-E10A92A7FEFD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F8E4AC1-82D8-464F-AC99-F587CEEBE68A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79726171-BCC8-4C8A-87FF-07943362E761}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6298,7 +6298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48677AB1-54EE-4C14-A99C-E5C57342F151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC7F3A3-E0FE-4AAE-8A9F-10A4545590E0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7533,18 +7533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{976AED3E-22A2-4F7E-9823-D5A4192AEDF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33476204-52A2-4703-9F4E-381807E0B088}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5FE720B-CA8F-4EF0-884C-3F4D21A76555}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF100ED9-26C1-4FAB-A504-B1D4B834CBBB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{003CA552-A7CC-4A21-9DEC-6D9BD98536FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F415ADD-218E-450B-AF64-EEB771F76D28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C21BDF7-A412-421E-B780-D0AF50EF46C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3E86D2C-F8A8-4489-8F67-992EF5C7C880}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D4E1FB5-1902-462B-88E5-5AB3728A5363}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1DE5FC5-A8AD-4958-9208-8AAB8512BC4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06B0926B-59B9-4847-A169-A935B794FA5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A70DDBE4-CE85-448B-97CA-0B499ACB3AF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0818994F-9823-4CE8-A983-A91A6A3FEE1A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{967656F8-B373-4404-98BA-76937E0BC78F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{202276A7-0493-49ED-A62E-946BD66F5A60}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8135D3C7-2456-41E4-84BB-6499FD5D2300}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{63600F26-8617-40FE-BCC0-97A67B3DD87D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBF2FA85-A5A5-48A3-BE67-32FFECDB3879}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A60CB81-2AC6-4695-B6C0-D686EE515926}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92B73B99-CF64-4362-98BD-63DE05BCAEF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65B4B37E-4FC2-4552-AC60-C9DE26FAE8BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC4E4DB5-DBCC-40BC-B3E6-DFDA010E01B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78A1C844-7C1D-408B-BEE3-C680F3947703}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C845D22-DD2C-4E98-A5B4-421FD37BED87}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7557,7 +7557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211281B8-D83B-4F41-A7EA-0929723F30E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3276783D-EE33-4E15-9734-67DCF96EB89E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8792,18 +8792,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D00B9037-6B98-48ED-B69E-9EF8C85B9EC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F1FA95-51D8-4B81-A89C-804B4A1CEC3C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B15E570-E109-4EBB-A006-9E7C8CBBEAA1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2024EFA-77D5-4703-A852-ED2CA05B569A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EC0986E8-3039-4242-8241-8B535B1D1781}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B069BE2-D085-4E1E-8BA4-2C6247F40249}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F67FA41B-41F3-4E49-BE7C-FE3B8EBEF943}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24992C10-B8E5-457A-8261-C2DBD6F1912A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71F21A4C-CFF7-47A1-A760-446AA6ABF8BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91BD8945-679D-4BF3-AA30-68897D7DB737}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C618347C-ABDB-4712-86D2-ACBF0D0C748A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{302889F0-762B-4DE2-AD75-2F9D740AD697}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEE9FFF0-3C17-4547-863D-877282CCB87B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{058B550D-869D-4B9C-98AA-0A48F12642DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63680DC3-4117-4E96-8F00-62E1264105AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B803A6F2-287A-4675-AF36-B689480C0E15}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{702E3C9E-AF50-4844-A104-AC391825C29C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{566F26BA-1F33-4D10-8765-092B5272559D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{147A85B7-B927-4538-AA59-90CA1E1A8474}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D99F1F5-4A22-437E-BA9A-98DAF67E1C44}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E9DCBDF-E348-4A51-87C3-F0905147AF21}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED06671A-7829-4BAA-98EE-94A175FF9C2B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C6DEDBB-1498-491E-92E2-F3E3CB03252E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C6D46C7-E70D-43A1-BE10-A63DE54370A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8816,7 +8816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44986C27-D2B1-4D50-BC27-6FD670D83687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD7E09-07C9-4692-B395-AF1900A3ACE0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10051,18 +10051,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{189552D4-45C1-4A04-8D5C-36BFF9A619EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B93DD43-26D6-42FC-A7DF-4200981B7072}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36DC8C54-DE71-465D-A5B3-8CF54F078E18}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4ACED01B-8C3D-4774-A031-7FA2AE12EC35}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{35608FF2-77CD-4D44-A8B0-9D1EB2AEAC96}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FA78B7B-1A83-40ED-8A80-C9A02868C725}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32406652-BF81-475C-AD8D-BD4300053341}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71115FDD-3BC6-492C-807F-0DD1378E9A6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DE42310-9E8D-4335-8706-B39582D81601}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8136A50F-0FE1-4C98-B5A0-F806B8D701BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E85D114-0048-4A75-A5E9-6CCD342FF969}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36D6C971-46A2-4F64-8312-4D8A179815C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAC0F865-EE96-486C-B370-CEE2A3A98741}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{157F9EB9-802B-42A2-B5F5-0429C2A784C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AEA48F61-8DBC-4C1D-97D3-55826B362043}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3309FA6-7BF4-471C-B0E2-B927921AD73C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{33A539E5-F854-4F4F-B351-A94F0A8B5710}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDBE924A-12C9-4DC0-BA10-D1F318392A7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91363156-DDF2-4DB5-8870-134A164ACE64}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{685E1CDD-0D51-431C-B77F-7980E8D76B35}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{383A5716-437F-41B5-A36E-30631B875479}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E243749-B0DE-4F18-A866-4176800AB038}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2404192E-C964-47E1-9060-E82F89C86C70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D0239D5-6FA6-4579-B9EB-DD9C542D807B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10075,7 +10075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AFCE03-0F66-4766-9AAB-CC32638ABC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1981A760-8E37-4AC8-8F5B-869340C05A02}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11306,18 +11306,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEFA126C-6A9B-4751-AC67-A96525BB3B4F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AE7ABCF-35DE-4A84-8303-5E70D097CF76}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD488C6C-430E-4DFE-AD2E-A16C787883DC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83E8C905-B0CC-471E-8858-451D754ABEE3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3C479FCC-FF72-493E-8DE1-1507CDF36EB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0E1AA5E-652C-444F-9D66-52FA935D8480}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B45256CB-5D05-41AB-AEAF-48E42344B6FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A802E5C-6777-4FED-82CA-825B83D40BAA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A76E497E-6F8D-423C-9B35-AA71B89E6A07}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D602643-D23F-4824-BE2E-E3458C567E80}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD27AA50-712C-4AA8-93CE-F8CAB5358802}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2AB678B-A9E4-47DE-A3D5-E6404211F07E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33844117-48FA-4570-9C16-A287A7827C0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79A02543-9560-4682-92C9-E5B0BA10AFC0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{53BD9E6A-492B-45BA-AE7F-A6DC6B048A9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45331838-89F9-4B98-A97C-7CF4F1032291}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{70155A5D-2471-4848-838F-335010950B87}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F62F790-3703-4905-949F-E24C5F6D8593}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DFF6BE3-1D6A-4B70-B84A-4753DBB11F13}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{472C0080-4E67-4B7E-92F3-4035A7B72B69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6D72BB1-188C-4138-A473-7FEFB5929314}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AC68F9D-18C1-45BC-A211-E62F3017E6CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A652BAAB-BF89-4745-9D2E-1CB1A3EEFA55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D740095B-D1DF-437F-8D8C-3C7C62863A4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11330,7 +11330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6923765-9D2C-4469-A94E-7493A16C5888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5A29E6-FE16-4769-8466-FD25465EEA61}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12561,18 +12561,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B0A294A-0780-4679-AE15-69DA3BBDB480}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F265F958-1411-4A27-ABA1-DDCCBA8EF1ED}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3D49C250-D506-4850-A390-D6DBCF0A02D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{864EC6D4-95F2-4944-9BBE-B1AF574268DA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EF6A8A3C-4012-4D6F-914A-DC2B3388C1C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46A025F3-2C19-4F74-997D-F6656857A377}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3476F4B-8D94-4FC4-8AFB-E9D056092265}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A9D8BA5-C325-4292-AF0D-A43F2519E9BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61430BBD-ACAA-4FB8-B664-45301D7C5A44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50C10495-FA70-4DF0-BF19-0871D2521871}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FC5F3E8-FFD8-4CC4-83DD-05595F9ED2B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCF88646-B613-43F5-8740-8552C8026018}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBA270B0-0CD4-431E-9C66-E8BE0A057F1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6190DF55-270C-41F9-83FA-EE2610ADC0E2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3B1291E-3EC6-440F-98A6-E24479CF2B2E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38212A84-8371-43C7-B7F4-171098584BA8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8275428C-D5DE-48EB-8BE3-5152001C0EE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2CDBE3C-FABE-45CC-A989-E29F4B89C83B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{152B9218-BE65-4DB7-8C67-2ABECB8645AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DBEC9F62-03FD-48CD-A0BB-5B08925BEEE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27B225FC-C627-42A7-B197-E79E0385EF20}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4E2D8FE-D07A-44DE-B827-89CF322E6B4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{102862DD-D688-4DF6-B653-6C94C6378E01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDABFCA9-5201-48FF-9E41-D05B455828F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12585,7 +12585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FCF50A-4835-4DB0-B240-5599A06B33CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85431868-B099-4D1E-845F-934B5FFEEC75}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13816,18 +13816,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C5946A4-0D62-4457-A7C1-8C1FB94AE086}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{002B1D09-5085-4E68-9A83-5B069DB13002}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A028B6E6-6C50-4CFF-9DC0-CEB3997F5AE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D41CD91C-1EC3-4803-AD64-A2934601973E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7F888FD1-3E78-44AE-BC18-3C33B1826532}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1921E85F-03EE-4167-AA72-3A1715635880}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BE461EC-2D5B-4684-B877-F09676682A54}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E790717B-4E93-4080-9317-5A1451371A4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBBB748F-0803-42AF-861A-3FA7A7556080}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CF86C14-531A-46B2-9012-41023CDA0524}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A037F66F-D025-4F20-874C-7ADA37FADD1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9370CAD4-B9E5-40D7-A16F-55A2A2FD7911}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F513C03-0A69-4F79-946A-367D394EA7AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57D09D93-66C6-4711-B969-B532C56F5287}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82290AE7-F2C5-4F6F-9AB6-67A83EADE760}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C8CC646-AFF2-48B8-9769-A674D07B74F9}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4A832CBC-7E78-49B2-97FC-8E2C4D502B6D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10598EE1-65BF-4233-89F7-525FA5DEC1C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7144BD6F-4B50-450A-B04A-4C545A6B6A10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDBC4B68-3A54-49FF-860F-FD802678BB97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96EC6A7B-3BCA-4191-B041-35B3B8C0915D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1D4B94D-9EA7-4232-B4E1-68AEC266F2B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCA467CF-CE24-4615-860B-C6C570155AB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5DCCA1C-CDAB-470D-A941-E1BEB7BDD396}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13840,7 +13840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3C43E5-BD56-44F7-9D72-B79F8C4B336A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1A0AB0-073F-494F-AD9B-307BA9A2BF2C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15071,18 +15071,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{397F0555-4AFD-463E-BA22-25BF7FB8B50B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EE9952F-7CD9-4761-BCB4-5A2242AA0948}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3193FB87-CC9C-4EF3-89C1-6C850B97BE57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F79A0113-E7E8-453C-A352-DACE3B398FAA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CD88EE46-2B91-43E5-8253-418FA06C87DA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2147F3CF-7D80-4DF7-A683-36AF5E55073F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21DAD5C1-1368-4E8C-8F21-6A741665A8EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E9A5394-25B9-4821-9BAC-37FE9ECE668C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A41E2B8C-12A3-47B2-931F-30A411C92399}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F55216FD-1E79-4840-BFB0-40AF241E38A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C854CD15-B6A6-4C01-9440-B7B7D0A0090C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FFB33F1-1888-41CF-9574-2B6462E06486}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEEA2C40-DD5A-41B6-8E27-4D0C02FEFB0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2737A1C-7639-47E5-964B-B22EE6FEDEB4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E992903E-0CF3-4091-9636-FFFA526FB9BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{823F3E67-720D-4FBC-B604-893464EDFB51}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{91A6743D-7AAA-4CC3-B2B0-FB64EE25191D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4DDA0E0-6C85-4743-984A-46A0D110D656}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85AE3982-4A10-4EF4-A234-37F8D63EB533}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8FA86F5-4BBE-4881-BA7F-FE15C20BAAFE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62A71225-A240-47CC-88CA-FDF8741E8CE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E408A1FE-E6ED-4839-BF4A-8BEEAB113276}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB68E7DF-5899-41B6-BBE3-8426B8B29648}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E497EF13-1945-4F77-9C07-4F7E7D44407A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15095,7 +15095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029FB73-39AE-4820-910E-6FC4662078A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E57926-8242-43F3-90AD-35C60A639136}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16326,18 +16326,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21BB9DBC-A8F3-4CEF-B8D0-159420047ADB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{226B49AD-2558-4870-BA0F-5F207B6D82E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D32D230-6631-446C-91AA-6F8562BD0C80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{86D300BA-70A4-4BB2-8412-A86C7AB1FF1B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{08A3CD9E-B546-4B3E-BE6F-09EEC89EEB03}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA421F28-B507-46C6-955C-0017C5A6FC14}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7472A744-B19E-4CFD-A03F-CF840875BD94}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF4E9931-D76A-4452-B4BE-C6149D6A045B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85E6EC16-098C-480A-824E-E9B3F601E71C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84ED19C1-F332-4F85-88EF-B12199808A1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC9F76FD-D19E-4DA4-9529-B09393114583}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F65BEC7A-ADA8-406A-A1D2-97F44105AFE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4060E39-0D69-4399-9BCE-E356F27301D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E780A3F9-2D79-46A1-8D81-80728399EC56}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{708F6BA7-9A55-4BF9-A858-0CE246F57201}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{440B7CCF-4660-404D-9AB0-2405566B144D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4A96E52C-DFC0-45F2-9F8A-3157F9FCCA88}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D294A78C-8615-4288-85C2-4CD709FF147C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C634E00-7216-43E3-9B19-3EC0B50A0AD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D853843B-8C76-4825-9311-CBB2B698C614}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA21D650-F899-4674-913E-779674D42B47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11918632-D016-43A3-A28C-FB98392B4E7A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2D3819C-1C07-474C-828A-81690591CC50}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B574EB7E-6444-4A7E-8474-FBEA425E2FAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
